--- a/trec-test.xlsx
+++ b/trec-test.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://a2gcadmin-my.sharepoint.com/personal/sebastien_a2gc_ca/Documents/A2GC - Guido/PhD/IFT-7050/Projet final/Datasets/1- XLSX Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{137809AF-963F-44DA-B5B3-D1BC37B0584E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7986BA62-7189-4F2C-BCA2-D4104AE497B8}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{137809AF-963F-44DA-B5B3-D1BC37B0584E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{25E85E03-EE7A-4073-AFE0-9AE9E5F358F2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{FE64A085-26FE-4E8E-8C88-F171541B117C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,1525 +41,1525 @@
     <t>NUM</t>
   </si>
   <si>
-    <t>dist How far is it from Denver to Aspen ?</t>
-  </si>
-  <si>
     <t>LOC</t>
   </si>
   <si>
-    <t>city What county is Modesto , California in ?</t>
-  </si>
-  <si>
     <t>HUM</t>
   </si>
   <si>
-    <t>desc Who was Galileo ?</t>
-  </si>
-  <si>
     <t>DESC</t>
   </si>
   <si>
-    <t>def What is an atom ?</t>
-  </si>
-  <si>
-    <t>date When did Hawaii become a state ?</t>
-  </si>
-  <si>
-    <t>dist How tall is the Sears Building ?</t>
-  </si>
-  <si>
-    <t>gr George Bush purchased a small interest in which baseball team ?</t>
-  </si>
-  <si>
     <t>ENTY</t>
   </si>
   <si>
-    <t>plant What is Australia 's national flower ?</t>
-  </si>
-  <si>
-    <t>reason Why does the moon turn orange ?</t>
-  </si>
-  <si>
-    <t>def What is autism ?</t>
-  </si>
-  <si>
-    <t>city What city had a world fair in 1900 ?</t>
-  </si>
-  <si>
-    <t>ind What person 's head is on a dime ?</t>
-  </si>
-  <si>
-    <t>weight What is the average weight of a Yellow Labrador ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first man to fly across the Pacific Ocean ?</t>
-  </si>
-  <si>
-    <t>date When did Idaho become a state ?</t>
-  </si>
-  <si>
-    <t>other What is the life expectancy for crickets ?</t>
-  </si>
-  <si>
-    <t>substance What metal has the highest melting point ?</t>
-  </si>
-  <si>
-    <t>ind Who developed the vaccination against polio ?</t>
-  </si>
-  <si>
-    <t>def What is epilepsy ?</t>
-  </si>
-  <si>
-    <t>date What year did the Titanic sink ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first American to walk in space ?</t>
-  </si>
-  <si>
-    <t>def What is a biosphere ?</t>
-  </si>
-  <si>
-    <t>other What river in the US is known as the Big Muddy ?</t>
-  </si>
-  <si>
-    <t>def What is bipolar disorder ?</t>
-  </si>
-  <si>
-    <t>def What is cholesterol ?</t>
-  </si>
-  <si>
-    <t>ind Who developed the Macintosh computer ?</t>
-  </si>
-  <si>
-    <t>def What is caffeine ?</t>
-  </si>
-  <si>
-    <t>other What imaginary line is halfway between the North and South Poles ?</t>
-  </si>
-  <si>
-    <t>other Where is John Wayne airport ?</t>
-  </si>
-  <si>
-    <t>other What hemisphere is the Philippines in ?</t>
-  </si>
-  <si>
-    <t>speed What is the average speed of the horses at the Kentucky Derby ?</t>
-  </si>
-  <si>
-    <t>mount Where are the Rocky Mountains ?</t>
-  </si>
-  <si>
-    <t>def What are invertebrates ?</t>
-  </si>
-  <si>
-    <t>temp What is the temperature at the center of the earth ?</t>
-  </si>
-  <si>
-    <t>date When did John F. Kennedy get elected as President ?</t>
-  </si>
-  <si>
-    <t>period How old was Elvis Presley when he died ?</t>
-  </si>
-  <si>
-    <t>other Where is the Orinoco River ?</t>
-  </si>
-  <si>
-    <t>dist How far is the service line from the net in tennis ?</t>
-  </si>
-  <si>
-    <t>count How much fiber should you have per day ?</t>
-  </si>
-  <si>
-    <t>count How many Great Lakes are there ?</t>
-  </si>
-  <si>
-    <t>plant Material called linen is made from what plant ?</t>
-  </si>
-  <si>
-    <t>def What is Teflon ?</t>
-  </si>
-  <si>
-    <t>def What is amitriptyline ?</t>
-  </si>
-  <si>
-    <t>def What is a shaman ?</t>
-  </si>
-  <si>
-    <t>animal What is the proper name for a female walrus ?</t>
-  </si>
-  <si>
-    <t>animal What is a group of turkeys called ?</t>
-  </si>
-  <si>
-    <t>period How long did Rip Van Winkle sleep ?</t>
-  </si>
-  <si>
-    <t>def What are triglycerides ?</t>
-  </si>
-  <si>
-    <t>count How many liters in a gallon ?</t>
-  </si>
-  <si>
-    <t>gr What is the name of the chocolate company in San Francisco ?</t>
-  </si>
-  <si>
-    <t>def What are amphibians ?</t>
-  </si>
-  <si>
-    <t>ind Who discovered x-rays ?</t>
-  </si>
-  <si>
-    <t>ind Which comedian 's signature line is `` Can we talk '' ?</t>
-  </si>
-  <si>
-    <t>def What is fibromyalgia ?</t>
-  </si>
-  <si>
-    <t>desc What is done with worn or outdated flags ?</t>
-  </si>
-  <si>
-    <t>def What does cc in engines mean ?</t>
-  </si>
-  <si>
-    <t>date When did Elvis Presley die ?</t>
-  </si>
-  <si>
-    <t>city What is the capital of Yugoslavia ?</t>
-  </si>
-  <si>
-    <t>city Where is Milan ?</t>
-  </si>
-  <si>
-    <t>speed What is the speed hummingbirds fly ?</t>
-  </si>
-  <si>
-    <t>city What is the oldest city in the United States ?</t>
-  </si>
-  <si>
-    <t>ind What was W.C. Fields ' real name ?</t>
-  </si>
-  <si>
-    <t>other What river flows between Fargo , North Dakota and Moorhead , Minnesota ?</t>
-  </si>
-  <si>
-    <t>food What do bats eat ?</t>
-  </si>
-  <si>
-    <t>state What state did the Battle of Bighorn take place in ?</t>
-  </si>
-  <si>
-    <t>desc Who was Abraham Lincoln ?</t>
-  </si>
-  <si>
-    <t>termeq What do you call a newborn kangaroo ?</t>
-  </si>
-  <si>
-    <t>def What are spider veins ?</t>
-  </si>
-  <si>
-    <t>date What day and month did John Lennon die ?</t>
-  </si>
-  <si>
-    <t>other What strait separates North America from Asia ?</t>
-  </si>
-  <si>
-    <t>other What is the population of Seattle ?</t>
-  </si>
-  <si>
-    <t>money How much was a ticket for the Titanic ?</t>
-  </si>
-  <si>
-    <t>city What is the largest city in the world ?</t>
-  </si>
-  <si>
-    <t>ind What American composer wrote the music for `` West Side Story '' ?</t>
-  </si>
-  <si>
-    <t>other Where is the Mall of the America ?</t>
-  </si>
-  <si>
-    <t>def What is the pH scale ?</t>
-  </si>
-  <si>
-    <t>currency What type of currency is used in Australia ?</t>
-  </si>
-  <si>
-    <t>dist How tall is the Gateway Arch in St. Louis , MO ?</t>
-  </si>
-  <si>
-    <t>weight How much does the human adult female brain weigh ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first governor of Alaska ?</t>
-  </si>
-  <si>
-    <t>def What is a prism ?</t>
-  </si>
-  <si>
-    <t>date When was the first liver transplant ?</t>
-  </si>
-  <si>
-    <t>ind Who was elected president of South Africa in 1994 ?</t>
-  </si>
-  <si>
-    <t>other What is the population of China ?</t>
-  </si>
-  <si>
-    <t>date When was Rosa Parks born ?</t>
-  </si>
-  <si>
-    <t>reason Why is a ladybug helpful ?</t>
-  </si>
-  <si>
-    <t>def What is amoxicillin ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first female United States Representative ?</t>
-  </si>
-  <si>
-    <t>def What are xerophytes ?</t>
-  </si>
-  <si>
-    <t>country What country did Ponce de Leon come from ?</t>
-  </si>
-  <si>
-    <t>event The U.S. Department of Treasury first issued paper currency for the U.S. during which war ?</t>
-  </si>
-  <si>
-    <t>def What is desktop publishing ?</t>
-  </si>
-  <si>
-    <t>temp What is the temperature of the sun 's surface ?</t>
-  </si>
-  <si>
-    <t>date What year did Canada join the United Nations ?</t>
-  </si>
-  <si>
-    <t>gr What is the oldest university in the US ?</t>
-  </si>
-  <si>
-    <t>other Where is Prince Edward Island ?</t>
-  </si>
-  <si>
-    <t>date Mercury , what year was it discovered ?</t>
-  </si>
-  <si>
-    <t>def What is cryogenics ?</t>
-  </si>
-  <si>
-    <t>def What are coral reefs ?</t>
-  </si>
-  <si>
-    <t>other What is the longest major league baseball-winning streak ?</t>
-  </si>
-  <si>
-    <t>def What is neurology ?</t>
-  </si>
-  <si>
-    <t>ind Who invented the calculator ?</t>
-  </si>
-  <si>
-    <t>manner How do you measure earthquakes ?</t>
-  </si>
-  <si>
-    <t>desc Who is Duke Ellington ?</t>
-  </si>
-  <si>
-    <t>city What county is Phoenix , AZ in ?</t>
-  </si>
-  <si>
-    <t>def What is a micron ?</t>
-  </si>
-  <si>
-    <t>temp The sun 's core , what is the temperature ?</t>
-  </si>
-  <si>
-    <t>animal What is the Ohio state bird ?</t>
-  </si>
-  <si>
-    <t>date When were William Shakespeare 's twins born ?</t>
-  </si>
-  <si>
-    <t>other What is the highest dam in the U.S. ?</t>
-  </si>
-  <si>
-    <t>color What color is a poison arrow frog ?</t>
-  </si>
-  <si>
-    <t>def What is acupuncture ?</t>
-  </si>
-  <si>
-    <t>dist What is the length of the coastline of the state of Alaska ?</t>
-  </si>
-  <si>
-    <t>ind What is the name of Neil Armstrong 's wife ?</t>
-  </si>
-  <si>
-    <t>plant What is Hawaii 's state flower ?</t>
-  </si>
-  <si>
-    <t>ind Who won Ms. American in 1989 ?</t>
-  </si>
-  <si>
-    <t>date When did the Hindenberg crash ?</t>
-  </si>
-  <si>
-    <t>substance What mineral helps prevent osteoporosis ?</t>
-  </si>
-  <si>
-    <t>date What was the last year that the Chicago Cubs won the World Series ?</t>
-  </si>
-  <si>
-    <t>other Where is Perth ?</t>
-  </si>
-  <si>
-    <t>date What year did WWII begin ?</t>
-  </si>
-  <si>
-    <t>dist What is the diameter of a golf ball ?</t>
-  </si>
-  <si>
-    <t>def What is an eclipse ?</t>
-  </si>
-  <si>
-    <t>ind Who discovered America ?</t>
-  </si>
-  <si>
-    <t>dist What is the earth 's diameter ?</t>
-  </si>
-  <si>
-    <t>ind Which president was unmarried ?</t>
-  </si>
-  <si>
-    <t>dist How wide is the Milky Way galaxy ?</t>
-  </si>
-  <si>
-    <t>date During which season do most thunderstorms occur ?</t>
-  </si>
-  <si>
-    <t>def What is Wimbledon ?</t>
-  </si>
-  <si>
-    <t>period What is the gestation period for a cat ?</t>
-  </si>
-  <si>
-    <t>dist How far is a nautical mile ?</t>
-  </si>
-  <si>
-    <t>ind Who was the abolitionist who led the raid on Harper 's Ferry in 1859 ?</t>
-  </si>
-  <si>
-    <t>def What does target heart rate mean ?</t>
-  </si>
-  <si>
-    <t>product What was the first satellite to go into space ?</t>
-  </si>
-  <si>
-    <t>def What is foreclosure ?</t>
-  </si>
-  <si>
-    <t>other What is the major fault line near Kentucky ?</t>
-  </si>
-  <si>
-    <t>other Where is the Holland Tunnel ?</t>
-  </si>
-  <si>
-    <t>ind Who wrote the hymn `` Amazing Grace '' ?</t>
-  </si>
-  <si>
-    <t>title What position did Willie Davis play in baseball ?</t>
-  </si>
-  <si>
-    <t>def What are platelets ?</t>
-  </si>
-  <si>
-    <t>def What is severance pay ?</t>
-  </si>
-  <si>
-    <t>animal What is the name of Roy Roger 's dog ?</t>
-  </si>
-  <si>
-    <t>other Where are the National Archives ?</t>
-  </si>
-  <si>
-    <t>animal What is a baby turkey called ?</t>
-  </si>
-  <si>
-    <t>def What is poliomyelitis ?</t>
-  </si>
-  <si>
-    <t>body What is the longest bone in the human body ?</t>
-  </si>
-  <si>
-    <t>ind Who is a German philosopher ?</t>
-  </si>
-  <si>
-    <t>veh What were Christopher Columbus ' three ships ?</t>
-  </si>
-  <si>
-    <t>def What does Phi Beta Kappa mean ?</t>
-  </si>
-  <si>
-    <t>def What is nicotine ?</t>
-  </si>
-  <si>
-    <t>termeq What is another name for vitamin B1 ?</t>
-  </si>
-  <si>
-    <t>ind Who discovered radium ?</t>
-  </si>
-  <si>
-    <t>def What are sunspots ?</t>
-  </si>
-  <si>
-    <t>date When was Algeria colonized ?</t>
-  </si>
-  <si>
-    <t>gr What baseball team was the first to make numbers part of their uniform ?</t>
-  </si>
-  <si>
-    <t>other What continent is Egypt on ?</t>
-  </si>
-  <si>
-    <t>city What is the capital of Mongolia ?</t>
-  </si>
-  <si>
-    <t>def What is nanotechnology ?</t>
-  </si>
-  <si>
-    <t>other In the late 1700 's British convicts were used to populate which colony ?</t>
-  </si>
-  <si>
-    <t>state What state is the geographic center of the lower 48 states ?</t>
-  </si>
-  <si>
-    <t>def What is an obtuse angle ?</t>
-  </si>
-  <si>
-    <t>def What are polymers ?</t>
-  </si>
-  <si>
-    <t>date When is hurricane season in the Caribbean ?</t>
-  </si>
-  <si>
-    <t>other Where is the volcano Mauna Loa ?</t>
-  </si>
-  <si>
-    <t>termeq What is another astronomic term for the Northern Lights ?</t>
-  </si>
-  <si>
-    <t>other What peninsula is Spain part of ?</t>
-  </si>
-  <si>
-    <t>date When was Lyndon B. Johnson born ?</t>
-  </si>
-  <si>
-    <t>def What is acetaminophen ?</t>
-  </si>
-  <si>
-    <t>state What state has the least amount of rain per year ?</t>
-  </si>
-  <si>
-    <t>ind Who founded American Red Cross ?</t>
-  </si>
-  <si>
-    <t>date What year did the Milwaukee Braves become the Atlanta Braves ?</t>
-  </si>
-  <si>
-    <t>speed How fast is alcohol absorbed ?</t>
-  </si>
-  <si>
-    <t>date When is the summer solstice ?</t>
-  </si>
-  <si>
-    <t>def What is supernova ?</t>
-  </si>
-  <si>
-    <t>other Where is the Shawnee National Forest ?</t>
-  </si>
-  <si>
-    <t>state What U.S. state 's motto is `` Live free or Die '' ?</t>
-  </si>
-  <si>
-    <t>other Where is the Lourve ?</t>
-  </si>
-  <si>
-    <t>date When was the first stamp issued ?</t>
-  </si>
-  <si>
-    <t>color What primary colors do you mix to make orange ?</t>
-  </si>
-  <si>
-    <t>dist How far is Pluto from the sun ?</t>
-  </si>
-  <si>
-    <t>other What body of water are the Canary Islands in ?</t>
-  </si>
-  <si>
-    <t>def What is neuropathy ?</t>
-  </si>
-  <si>
-    <t>other Where is the Euphrates River ?</t>
-  </si>
-  <si>
-    <t>def What is cryptography ?</t>
-  </si>
-  <si>
-    <t>substance What is natural gas composed of ?</t>
-  </si>
-  <si>
-    <t>ind Who is the Prime Minister of Canada ?</t>
-  </si>
-  <si>
-    <t>ind What French ruler was defeated at the battle of Waterloo ?</t>
-  </si>
-  <si>
-    <t>def What is leukemia ?</t>
-  </si>
-  <si>
-    <t>other Where did Howard Hughes die ?</t>
-  </si>
-  <si>
-    <t>substance What is the birthstone for June ?</t>
-  </si>
-  <si>
-    <t>other What is the sales tax in Minnesota ?</t>
-  </si>
-  <si>
-    <t>dist What is the distance in miles from the earth to the sun ?</t>
-  </si>
-  <si>
-    <t>period What is the average life span for a chicken ?</t>
-  </si>
-  <si>
-    <t>date When was the first Wal-Mart store opened ?</t>
-  </si>
-  <si>
-    <t>def What is relative humidity ?</t>
-  </si>
-  <si>
-    <t>city What city has the zip code of 35824 ?</t>
-  </si>
-  <si>
-    <t>currency What currency is used in Algeria ?</t>
-  </si>
-  <si>
-    <t>ind Who invented the hula hoop ?</t>
-  </si>
-  <si>
-    <t>product What was the most popular toy in 1957 ?</t>
-  </si>
-  <si>
-    <t>substance What is pastrami made of ?</t>
-  </si>
-  <si>
-    <t>product What is the name of the satellite that the Soviet Union sent into space in 1957 ?</t>
-  </si>
-  <si>
-    <t>city What city 's newspaper is called `` The Enquirer '' ?</t>
-  </si>
-  <si>
-    <t>ind Who invented the slinky ?</t>
-  </si>
-  <si>
-    <t>animal What are the animals that don 't have backbones called ?</t>
-  </si>
-  <si>
-    <t>other What is the melting point of copper ?</t>
-  </si>
-  <si>
-    <t>other Where is the volcano Olympus Mons located ?</t>
-  </si>
-  <si>
-    <t>ind Who was the 23rd president of the United States ?</t>
-  </si>
-  <si>
-    <t>temp What is the average body temperature ?</t>
-  </si>
-  <si>
-    <t>desc What does a defibrillator do ?</t>
-  </si>
-  <si>
-    <t>desc What is the effect of acid rain ?</t>
-  </si>
-  <si>
-    <t>date What year did the United States abolish the draft ?</t>
-  </si>
-  <si>
-    <t>speed How fast is the speed of light ?</t>
-  </si>
-  <si>
-    <t>state What province is Montreal in ?</t>
-  </si>
-  <si>
-    <t>other What New York City structure is also known as the Twin Towers ?</t>
-  </si>
-  <si>
-    <t>def What is fungus ?</t>
-  </si>
-  <si>
-    <t>lang What is the most frequently spoken language in the Netherlands ?</t>
-  </si>
-  <si>
-    <t>def What is sodium chloride ?</t>
-  </si>
-  <si>
-    <t>termeq What are the spots on dominoes called ?</t>
-  </si>
-  <si>
-    <t>count How many pounds in a ton ?</t>
-  </si>
-  <si>
-    <t>def What is influenza ?</t>
-  </si>
-  <si>
-    <t>def What is ozone depletion ?</t>
-  </si>
-  <si>
-    <t>date What year was the Mona Lisa painted ?</t>
-  </si>
-  <si>
-    <t>def What does `` Sitting Shiva '' mean ?</t>
-  </si>
-  <si>
-    <t>other What is the electrical output in Madrid , Spain ?</t>
-  </si>
-  <si>
-    <t>mount Which mountain range in North America stretches from Maine to Georgia ?</t>
-  </si>
-  <si>
-    <t>substance What is plastic made of ?</t>
-  </si>
-  <si>
-    <t>other What is the population of Nigeria ?</t>
-  </si>
-  <si>
-    <t>desc What does your spleen do ?</t>
-  </si>
-  <si>
-    <t>other Where is the Grand Canyon ?</t>
-  </si>
-  <si>
-    <t>ind Who invented the telephone ?</t>
-  </si>
-  <si>
-    <t>date What year did the U.S. buy Alaska ?</t>
-  </si>
-  <si>
-    <t>ind What is the name of the leader of Ireland ?</t>
-  </si>
-  <si>
-    <t>def What is phenylalanine ?</t>
-  </si>
-  <si>
-    <t>count How many gallons of water are there in a cubic foot ?</t>
-  </si>
-  <si>
-    <t>other What are the two houses of the Legislative branch ?</t>
-  </si>
-  <si>
-    <t>def What is sonar ?</t>
-  </si>
-  <si>
-    <t>other In Poland , where do most people live ?</t>
-  </si>
-  <si>
-    <t>def What is phosphorus ?</t>
-  </si>
-  <si>
-    <t>other What is the location of the Sea of Tranquility ?</t>
-  </si>
-  <si>
-    <t>speed How fast is sound ?</t>
-  </si>
-  <si>
-    <t>state What French province is cognac produced in ?</t>
-  </si>
-  <si>
-    <t>def What is Valentine 's Day ?</t>
-  </si>
-  <si>
-    <t>reason What causes gray hair ?</t>
-  </si>
-  <si>
-    <t>def What is hypertension ?</t>
-  </si>
-  <si>
-    <t>def What is bandwidth ?</t>
-  </si>
-  <si>
-    <t>other What is the longest suspension bridge in the U.S. ?</t>
-  </si>
-  <si>
-    <t>def What is a parasite ?</t>
-  </si>
-  <si>
-    <t>def What is home equity ?</t>
-  </si>
-  <si>
-    <t>desc What do meteorologists do ?</t>
-  </si>
-  <si>
-    <t>other What is the criterion for being legally blind ?</t>
-  </si>
-  <si>
-    <t>ind Who is the tallest man in the world ?</t>
-  </si>
-  <si>
-    <t>city What are the twin cities ?</t>
-  </si>
-  <si>
-    <t>other What did Edward Binney and Howard Smith invent in 1903 ?</t>
-  </si>
-  <si>
-    <t>substance What is the statue of liberty made of ?</t>
-  </si>
-  <si>
-    <t>def What is pilates ?</t>
-  </si>
-  <si>
-    <t>other What planet is known as the `` red '' planet ?</t>
-  </si>
-  <si>
-    <t>dist What is the depth of the Nile river ?</t>
-  </si>
-  <si>
-    <t>termeq What is the colorful Korean traditional dress called ?</t>
-  </si>
-  <si>
-    <t>def What is Mardi Gras ?</t>
-  </si>
-  <si>
-    <t>money Mexican pesos are worth what in U.S. dollars ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first African American to play for the Brooklyn Dodgers ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first Prime Minister of Canada ?</t>
-  </si>
-  <si>
-    <t>count How many Admirals are there in the U.S. Navy ?</t>
-  </si>
-  <si>
-    <t>instru What instrument did Glenn Miller play ?</t>
-  </si>
-  <si>
-    <t>period How old was Joan of Arc when she died ?</t>
-  </si>
-  <si>
-    <t>def What does the word fortnight mean ?</t>
-  </si>
-  <si>
-    <t>def What is dianetics ?</t>
-  </si>
-  <si>
-    <t>city What is the capital of Ethiopia ?</t>
-  </si>
-  <si>
-    <t>period For how long is an elephant pregnant ?</t>
-  </si>
-  <si>
-    <t>manner How did Janice Joplin die ?</t>
-  </si>
-  <si>
-    <t>lang What is the primary language in Iceland ?</t>
-  </si>
-  <si>
-    <t>desc What is the difference between AM radio stations and FM radio stations ?</t>
-  </si>
-  <si>
-    <t>def What is osteoporosis ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first woman governor in the U.S. ?</t>
-  </si>
-  <si>
-    <t>def What is peyote ?</t>
-  </si>
-  <si>
-    <t>reason What is the esophagus used for ?</t>
-  </si>
-  <si>
-    <t>def What is viscosity ?</t>
-  </si>
-  <si>
-    <t>date What year did Oklahoma become a state ?</t>
-  </si>
-  <si>
     <t>ABBR</t>
   </si>
   <si>
-    <t>abb What is the abbreviation for Texas ?</t>
-  </si>
-  <si>
-    <t>substance What is a mirror made out of ?</t>
-  </si>
-  <si>
-    <t>other Where on the body is a mortarboard worn ?</t>
-  </si>
-  <si>
-    <t>ind What was J.F.K. 's wife 's name ?</t>
-  </si>
-  <si>
-    <t>exp What does I.V. stand for ?</t>
-  </si>
-  <si>
-    <t>def What is the chunnel ?</t>
-  </si>
-  <si>
-    <t>other Where is Hitler buried ?</t>
-  </si>
-  <si>
-    <t>def What are antacids ?</t>
-  </si>
-  <si>
-    <t>def What is pulmonary fibrosis ?</t>
-  </si>
-  <si>
-    <t>def What are Quaaludes ?</t>
-  </si>
-  <si>
-    <t>def What is naproxen ?</t>
-  </si>
-  <si>
-    <t>def What is strep throat ?</t>
-  </si>
-  <si>
-    <t>city What is the largest city in the U.S. ?</t>
-  </si>
-  <si>
-    <t>dismed What is foot and mouth disease ?</t>
-  </si>
-  <si>
-    <t>other What is the life expectancy of a dollar bill ?</t>
-  </si>
-  <si>
-    <t>termeq What do you call a professional map drawer ?</t>
-  </si>
-  <si>
-    <t>def What are Aborigines ?</t>
-  </si>
-  <si>
-    <t>def What is hybridization ?</t>
-  </si>
-  <si>
-    <t>color What color is indigo ?</t>
-  </si>
-  <si>
-    <t>period How old do you have to be in order to rent a car in Italy ?</t>
-  </si>
-  <si>
-    <t>other What does a barometer measure ?</t>
-  </si>
-  <si>
-    <t>color What color is a giraffe 's tongue ?</t>
-  </si>
-  <si>
-    <t>exp What does USPS stand for ?</t>
-  </si>
-  <si>
-    <t>date What year did the NFL go on strike ?</t>
-  </si>
-  <si>
-    <t>def What is solar wind ?</t>
-  </si>
-  <si>
-    <t>date What date did Neil Armstrong land on the moon ?</t>
-  </si>
-  <si>
-    <t>date When was Hiroshima bombed ?</t>
-  </si>
-  <si>
-    <t>other Where is the Savannah River ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first woman killed in the Vietnam War ?</t>
-  </si>
-  <si>
-    <t>other What planet has the strongest magnetic field of all the planets ?</t>
-  </si>
-  <si>
-    <t>ind Who is the governor of Alaska ?</t>
-  </si>
-  <si>
-    <t>date What year did Mussolini seize power in Italy ?</t>
-  </si>
-  <si>
-    <t>city What is the capital of Persia ?</t>
-  </si>
-  <si>
-    <t>other Where is the Eiffel Tower ?</t>
-  </si>
-  <si>
-    <t>count How many hearts does an octopus have ?</t>
-  </si>
-  <si>
-    <t>def What is pneumonia ?</t>
-  </si>
-  <si>
-    <t>other What is the deepest lake in the US ?</t>
-  </si>
-  <si>
-    <t>def What is a fuel cell ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first U.S. president to appear on TV ?</t>
-  </si>
-  <si>
-    <t>other Where is the Little League Museum ?</t>
-  </si>
-  <si>
-    <t>other What are the two types of twins ?</t>
-  </si>
-  <si>
-    <t>other What is the brightest star ?</t>
-  </si>
-  <si>
-    <t>def What is diabetes ?</t>
-  </si>
-  <si>
-    <t>date When was President Kennedy shot ?</t>
-  </si>
-  <si>
-    <t>exp What is TMJ ?</t>
-  </si>
-  <si>
-    <t>color What color is yak milk ?</t>
-  </si>
-  <si>
-    <t>date What date was Dwight D. Eisenhower born ?</t>
-  </si>
-  <si>
-    <t>exp What does the technical term ISDN mean ?</t>
-  </si>
-  <si>
-    <t>reason Why is the sun yellow ?</t>
-  </si>
-  <si>
-    <t>money What is the conversion rate between dollars and pounds ?</t>
-  </si>
-  <si>
-    <t>date When was Abraham Lincoln born ?</t>
-  </si>
-  <si>
-    <t>def What is the Milky Way ?</t>
-  </si>
-  <si>
-    <t>def What is mold ?</t>
-  </si>
-  <si>
-    <t>date What year was Mozart born ?</t>
-  </si>
-  <si>
-    <t>animal What is a group of frogs called ?</t>
-  </si>
-  <si>
-    <t>veh What is the name of William Penn 's ship ?</t>
-  </si>
-  <si>
-    <t>other What is the melting point of gold ?</t>
-  </si>
-  <si>
-    <t>other What is the street address of the White House ?</t>
-  </si>
-  <si>
-    <t>def What is semolina ?</t>
-  </si>
-  <si>
-    <t>food What fruit is Melba sauce made from ?</t>
-  </si>
-  <si>
-    <t>def What is Ursa Major ?</t>
-  </si>
-  <si>
-    <t>perc What is the percentage of water content in the human body ?</t>
-  </si>
-  <si>
-    <t>weight How much does water weigh ?</t>
-  </si>
-  <si>
-    <t>event What was President Lyndon Johnson 's reform program called ?</t>
-  </si>
-  <si>
-    <t>perc What is the murder rate in Windsor , Ontario ?</t>
-  </si>
-  <si>
-    <t>ind Who is the only president to serve 2 non-consecutive terms ?</t>
-  </si>
-  <si>
-    <t>other What is the population of Australia ?</t>
-  </si>
-  <si>
-    <t>ind Who painted the ceiling of the Sistine Chapel ?</t>
-  </si>
-  <si>
-    <t>dismed Name a stimulant .</t>
-  </si>
-  <si>
-    <t>desc What is the effect of volcanoes on the climate ?</t>
-  </si>
-  <si>
-    <t>date What year did the Andy Griffith show begin ?</t>
-  </si>
-  <si>
-    <t>def What is acid rain ?</t>
-  </si>
-  <si>
-    <t>date What is the date of Mexico 's independence ?</t>
-  </si>
-  <si>
-    <t>other What is the location of Lake Champlain ?</t>
-  </si>
-  <si>
-    <t>plant What is the Illinois state flower ?</t>
-  </si>
-  <si>
-    <t>animal What is Maryland 's state bird ?</t>
-  </si>
-  <si>
-    <t>def What is quicksilver ?</t>
-  </si>
-  <si>
-    <t>ind Who wrote `` The Divine Comedy '' ?</t>
-  </si>
-  <si>
-    <t>speed What is the speed of light ?</t>
-  </si>
-  <si>
-    <t>dist What is the width of a football field ?</t>
-  </si>
-  <si>
-    <t>reason Why in tennis are zero points called love ?</t>
-  </si>
-  <si>
-    <t>animal What kind of dog was Toto in the Wizard of Oz ?</t>
-  </si>
-  <si>
-    <t>def What is a thyroid ?</t>
-  </si>
-  <si>
-    <t>def What does ciao mean ?</t>
-  </si>
-  <si>
-    <t>body What is the only artery that carries blue blood from the heart to the lungs ?</t>
-  </si>
-  <si>
-    <t>other How often does Old Faithful erupt at Yellowstone National Park ?</t>
-  </si>
-  <si>
-    <t>def What is acetic acid ?</t>
-  </si>
-  <si>
-    <t>dist What is the elevation of St. Louis , MO ?</t>
-  </si>
-  <si>
-    <t>color What color does litmus paper turn when it comes into contact with a strong acid ?</t>
-  </si>
-  <si>
-    <t>color What are the colors of the German flag ?</t>
-  </si>
-  <si>
-    <t>def What is the Moulin Rouge ?</t>
-  </si>
-  <si>
-    <t>other What soviet seaport is on the Black Sea ?</t>
-  </si>
-  <si>
-    <t>weight What is the atomic weight of silver ?</t>
-  </si>
-  <si>
-    <t>currency What currency do they use in Brazil ?</t>
-  </si>
-  <si>
-    <t>def What are pathogens ?</t>
-  </si>
-  <si>
-    <t>def What is mad cow disease ?</t>
-  </si>
-  <si>
-    <t>food Name a food high in zinc .</t>
-  </si>
-  <si>
-    <t>date When did North Carolina enter the union ?</t>
-  </si>
-  <si>
-    <t>other Where do apple snails live ?</t>
-  </si>
-  <si>
-    <t>def What are ethics ?</t>
-  </si>
-  <si>
-    <t>exp What does CPR stand for ?</t>
-  </si>
-  <si>
-    <t>def What is an annuity ?</t>
-  </si>
-  <si>
-    <t>ind Who killed John F. Kennedy ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first vice president of the U.S. ?</t>
-  </si>
-  <si>
-    <t>substance What birthstone is turquoise ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first US President to ride in an automobile to his inauguration ?</t>
-  </si>
-  <si>
-    <t>period How old was the youngest president of the United States ?</t>
-  </si>
-  <si>
-    <t>date When was Ulysses S. Grant born ?</t>
-  </si>
-  <si>
-    <t>def What is Muscular Dystrophy ?</t>
-  </si>
-  <si>
-    <t>ind Who lived in the Neuschwanstein castle ?</t>
-  </si>
-  <si>
-    <t>def What is propylene glycol ?</t>
-  </si>
-  <si>
-    <t>def What is a panic disorder ?</t>
-  </si>
-  <si>
-    <t>ind Who invented the instant Polaroid camera ?</t>
-  </si>
-  <si>
-    <t>def What is a carcinogen ?</t>
-  </si>
-  <si>
-    <t>animal What is a baby lion called ?</t>
-  </si>
-  <si>
-    <t>other What is the world 's population ?</t>
-  </si>
-  <si>
-    <t>def What is nepotism ?</t>
-  </si>
-  <si>
-    <t>def What is die-casting ?</t>
-  </si>
-  <si>
-    <t>def What is myopia ?</t>
-  </si>
-  <si>
-    <t>other What is the sales tax rate in New York ?</t>
-  </si>
-  <si>
-    <t>perc Developing nations comprise what percentage of the world 's population ?</t>
-  </si>
-  <si>
-    <t>mount What is the fourth highest mountain in the world ?</t>
-  </si>
-  <si>
-    <t>ind What is Shakespeare 's nickname ?</t>
-  </si>
-  <si>
-    <t>substance What is the heaviest naturally occurring element ?</t>
-  </si>
-  <si>
-    <t>date When is Father 's Day ?</t>
-  </si>
-  <si>
-    <t>exp What does the acronym NASA stand for ?</t>
-  </si>
-  <si>
-    <t>dist How long is the Columbia River in miles ?</t>
-  </si>
-  <si>
-    <t>city What city 's newspaper is called `` The Star '' ?</t>
-  </si>
-  <si>
-    <t>def What is carbon dioxide ?</t>
-  </si>
-  <si>
-    <t>other Where is the Mason/Dixon line ?</t>
-  </si>
-  <si>
-    <t>date When was the Boston tea party ?</t>
-  </si>
-  <si>
-    <t>def What is metabolism ?</t>
-  </si>
-  <si>
-    <t>ind Which U.S.A. president appeared on `` Laugh-In '' ?</t>
-  </si>
-  <si>
-    <t>substance What are cigarettes made of ?</t>
-  </si>
-  <si>
-    <t>city What is the capital of Zimbabwe ?</t>
-  </si>
-  <si>
-    <t>exp What does NASA stand for ?</t>
-  </si>
-  <si>
-    <t>plant What is the state flower of Michigan ?</t>
-  </si>
-  <si>
-    <t>def What are semiconductors ?</t>
-  </si>
-  <si>
-    <t>def What is nuclear power ?</t>
-  </si>
-  <si>
-    <t>def What is a tsunami ?</t>
-  </si>
-  <si>
-    <t>ind Who is the congressman from state of Texas on the armed forces committee ?</t>
-  </si>
-  <si>
-    <t>ind Who was president in 1913 ?</t>
-  </si>
-  <si>
-    <t>date When was the first kidney transplant ?</t>
-  </si>
-  <si>
-    <t>other What are Canada 's two territories ?</t>
-  </si>
-  <si>
-    <t>veh What was the name of the plane Lindbergh flew solo across the Atlantic ?</t>
-  </si>
-  <si>
-    <t>def What is genocide ?</t>
-  </si>
-  <si>
-    <t>other What continent is Argentina on ?</t>
-  </si>
-  <si>
-    <t>other What monastery was raided by Vikings in the late eighth century ?</t>
-  </si>
-  <si>
-    <t>def What is an earthquake ?</t>
-  </si>
-  <si>
-    <t>other Where is the tallest roller coaster located ?</t>
-  </si>
-  <si>
-    <t>def What are enzymes ?</t>
-  </si>
-  <si>
-    <t>ind Who discovered oxygen ?</t>
-  </si>
-  <si>
-    <t>def What is bangers and mash ?</t>
-  </si>
-  <si>
-    <t>animal What is the name given to the Tiger at Louisiana State University ?</t>
-  </si>
-  <si>
-    <t>other Where are the British crown jewels kept ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first person to reach the North Pole ?</t>
-  </si>
-  <si>
-    <t>def What is an ulcer ?</t>
-  </si>
-  <si>
-    <t>def What is vertigo ?</t>
-  </si>
-  <si>
-    <t>def What is the spirometer test ?</t>
-  </si>
-  <si>
-    <t>date When is the official first day of summer ?</t>
-  </si>
-  <si>
-    <t>exp What does the abbreviation SOS mean ?</t>
-  </si>
-  <si>
-    <t>animal What is the smallest bird in Britain ?</t>
-  </si>
-  <si>
-    <t>ind Who invented Trivial Pursuit ?</t>
-  </si>
-  <si>
-    <t>substance What gasses are in the troposphere ?</t>
-  </si>
-  <si>
-    <t>country Which country has the most water pollution ?</t>
-  </si>
-  <si>
-    <t>animal What is the scientific name for elephant ?</t>
-  </si>
-  <si>
-    <t>ind Who is the actress known for her role in the movie `` Gypsy '' ?</t>
-  </si>
-  <si>
-    <t>animal What breed of hunting dog did the Beverly Hillbillies own ?</t>
-  </si>
-  <si>
-    <t>other What is the rainiest place on Earth ?</t>
-  </si>
-  <si>
-    <t>ind Who was the first African American to win the Nobel Prize in literature ?</t>
-  </si>
-  <si>
-    <t>date When is St. Patrick 's Day ?</t>
-  </si>
-  <si>
-    <t>animal What was FDR 's dog 's name ?</t>
-  </si>
-  <si>
-    <t>color What colors need to be mixed to get the color pink ?</t>
-  </si>
-  <si>
-    <t>sport What is the most popular sport in Japan ?</t>
-  </si>
-  <si>
-    <t>food What is the active ingredient in baking soda ?</t>
-  </si>
-  <si>
-    <t>date When was Thomas Jefferson born ?</t>
-  </si>
-  <si>
-    <t>temp How cold should a refrigerator be ?</t>
-  </si>
-  <si>
-    <t>date When was the telephone invented ?</t>
-  </si>
-  <si>
-    <t>color What is the most common eye color ?</t>
-  </si>
-  <si>
-    <t>other Where was the first golf course in the United States ?</t>
-  </si>
-  <si>
-    <t>def What is schizophrenia ?</t>
-  </si>
-  <si>
-    <t>def What is angiotensin ?</t>
-  </si>
-  <si>
-    <t>gr What did Jesse Jackson organize ?</t>
-  </si>
-  <si>
-    <t>animal What is New York 's state bird ?</t>
-  </si>
-  <si>
-    <t>other What is the National Park in Utah ?</t>
-  </si>
-  <si>
-    <t>date What is Susan B. Anthony 's birthday ?</t>
-  </si>
-  <si>
-    <t>state In which state would you find the Catskill Mountains ?</t>
-  </si>
-  <si>
-    <t>termeq What do you call a word that is spelled the same backwards and forwards ?</t>
-  </si>
-  <si>
-    <t>def What are pediatricians ?</t>
-  </si>
-  <si>
-    <t>gr What chain store is headquartered in Bentonville , Arkansas ?</t>
-  </si>
-  <si>
-    <t>def What are solar cells ?</t>
-  </si>
-  <si>
-    <t>def What is compounded interest ?</t>
-  </si>
-  <si>
-    <t>def What are capers ?</t>
-  </si>
-  <si>
-    <t>def What is an antigen ?</t>
-  </si>
-  <si>
-    <t>currency What currency does Luxembourg use ?</t>
-  </si>
-  <si>
-    <t>other What is the population of Venezuela ?</t>
-  </si>
-  <si>
-    <t>other What type of polymer is used for bulletproof vests ?</t>
-  </si>
-  <si>
-    <t>currency What currency does Argentina use ?</t>
-  </si>
-  <si>
-    <t>def What is a thermometer ?</t>
-  </si>
-  <si>
-    <t>city What Canadian city has the largest population ?</t>
-  </si>
-  <si>
-    <t>color What color are crickets ?</t>
-  </si>
-  <si>
-    <t>country Which country gave New York the Statue of Liberty ?</t>
-  </si>
-  <si>
-    <t>product What was the name of the first U.S. satellite sent into space ?</t>
-  </si>
-  <si>
-    <t>substance What precious stone is a form of pure carbon ?</t>
-  </si>
-  <si>
-    <t>substance What kind of gas is in a fluorescent bulb ?</t>
-  </si>
-  <si>
-    <t>def What is rheumatoid arthritis ?</t>
-  </si>
-  <si>
-    <t>other What river runs through Rowe , Italy ?</t>
-  </si>
-  <si>
-    <t>def What is cerebral palsy ?</t>
-  </si>
-  <si>
-    <t>city What city is also known as `` The Gateway to the West '' ?</t>
-  </si>
-  <si>
-    <t>dist How far away is the moon ?</t>
-  </si>
-  <si>
-    <t>other What is the source of natural gas ?</t>
-  </si>
-  <si>
-    <t>veh In what spacecraft did U.S. astronaut Alan Shepard make his historic 1961 flight ?</t>
-  </si>
-  <si>
-    <t>def What is pectin ?</t>
-  </si>
-  <si>
-    <t>def What is bio-diversity ?</t>
-  </si>
-  <si>
-    <t>techmeth What 's the easiest way to remove wallpaper ?</t>
-  </si>
-  <si>
-    <t>date What year did the Titanic start on its journey ?</t>
-  </si>
-  <si>
-    <t>count How much of an apple is water ?</t>
-  </si>
-  <si>
-    <t>ind Who was the 22nd President of the US ?</t>
-  </si>
-  <si>
-    <t>currency What is the money they use in Zambia ?</t>
-  </si>
-  <si>
-    <t>count How many feet in a mile ?</t>
-  </si>
-  <si>
-    <t>substance What is the birthstone of October ?</t>
-  </si>
-  <si>
-    <t>def What is e-coli ?</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>How far is it from Denver to Aspen ?</t>
+  </si>
+  <si>
+    <t>What county is Modesto , California in ?</t>
+  </si>
+  <si>
+    <t>Who was Galileo ?</t>
+  </si>
+  <si>
+    <t>What is an atom ?</t>
+  </si>
+  <si>
+    <t>When did Hawaii become a state ?</t>
+  </si>
+  <si>
+    <t>How tall is the Sears Building ?</t>
+  </si>
+  <si>
+    <t>George Bush purchased a small interest in which baseball team ?</t>
+  </si>
+  <si>
+    <t>What is Australia 's national flower ?</t>
+  </si>
+  <si>
+    <t>Why does the moon turn orange ?</t>
+  </si>
+  <si>
+    <t>What is autism ?</t>
+  </si>
+  <si>
+    <t>What city had a world fair in 1900 ?</t>
+  </si>
+  <si>
+    <t>What person 's head is on a dime ?</t>
+  </si>
+  <si>
+    <t>What is the average weight of a Yellow Labrador ?</t>
+  </si>
+  <si>
+    <t>Who was the first man to fly across the Pacific Ocean ?</t>
+  </si>
+  <si>
+    <t>When did Idaho become a state ?</t>
+  </si>
+  <si>
+    <t>What is the life expectancy for crickets ?</t>
+  </si>
+  <si>
+    <t>What metal has the highest melting point ?</t>
+  </si>
+  <si>
+    <t>Who developed the vaccination against polio ?</t>
+  </si>
+  <si>
+    <t>What is epilepsy ?</t>
+  </si>
+  <si>
+    <t>What year did the Titanic sink ?</t>
+  </si>
+  <si>
+    <t>Who was the first American to walk in space ?</t>
+  </si>
+  <si>
+    <t>What is a biosphere ?</t>
+  </si>
+  <si>
+    <t>What river in the US is known as the Big Muddy ?</t>
+  </si>
+  <si>
+    <t>What is bipolar disorder ?</t>
+  </si>
+  <si>
+    <t>What is cholesterol ?</t>
+  </si>
+  <si>
+    <t>Who developed the Macintosh computer ?</t>
+  </si>
+  <si>
+    <t>What is caffeine ?</t>
+  </si>
+  <si>
+    <t>What imaginary line is halfway between the North and South Poles ?</t>
+  </si>
+  <si>
+    <t>Where is John Wayne airport ?</t>
+  </si>
+  <si>
+    <t>What hemisphere is the Philippines in ?</t>
+  </si>
+  <si>
+    <t>What is the average speed of the horses at the Kentucky Derby ?</t>
+  </si>
+  <si>
+    <t>Where are the Rocky Mountains ?</t>
+  </si>
+  <si>
+    <t>What are invertebrates ?</t>
+  </si>
+  <si>
+    <t>What is the temperature at the center of the earth ?</t>
+  </si>
+  <si>
+    <t>When did John F. Kennedy get elected as President ?</t>
+  </si>
+  <si>
+    <t>How old was Elvis Presley when he died ?</t>
+  </si>
+  <si>
+    <t>Where is the Orinoco River ?</t>
+  </si>
+  <si>
+    <t>How far is the service line from the net in tennis ?</t>
+  </si>
+  <si>
+    <t>How much fiber should you have per day ?</t>
+  </si>
+  <si>
+    <t>How many Great Lakes are there ?</t>
+  </si>
+  <si>
+    <t>Material called linen is made from what plant ?</t>
+  </si>
+  <si>
+    <t>What is Teflon ?</t>
+  </si>
+  <si>
+    <t>What is amitriptyline ?</t>
+  </si>
+  <si>
+    <t>What is a shaman ?</t>
+  </si>
+  <si>
+    <t>What is the proper name for a female walrus ?</t>
+  </si>
+  <si>
+    <t>What is a group of turkeys called ?</t>
+  </si>
+  <si>
+    <t>How long did Rip Van Winkle sleep ?</t>
+  </si>
+  <si>
+    <t>What are triglycerides ?</t>
+  </si>
+  <si>
+    <t>How many liters in a gallon ?</t>
+  </si>
+  <si>
+    <t>What is the name of the chocolate company in San Francisco ?</t>
+  </si>
+  <si>
+    <t>What are amphibians ?</t>
+  </si>
+  <si>
+    <t>Who discovered x-rays ?</t>
+  </si>
+  <si>
+    <t>Which comedian 's signature line is `` Can we talk '' ?</t>
+  </si>
+  <si>
+    <t>What is fibromyalgia ?</t>
+  </si>
+  <si>
+    <t>What is done with worn or outdated flags ?</t>
+  </si>
+  <si>
+    <t>What does cc in engines mean ?</t>
+  </si>
+  <si>
+    <t>When did Elvis Presley die ?</t>
+  </si>
+  <si>
+    <t>What is the capital of Yugoslavia ?</t>
+  </si>
+  <si>
+    <t>Where is Milan ?</t>
+  </si>
+  <si>
+    <t>What is the speed hummingbirds fly ?</t>
+  </si>
+  <si>
+    <t>What is the oldest city in the United States ?</t>
+  </si>
+  <si>
+    <t>What was W.C. Fields ' real name ?</t>
+  </si>
+  <si>
+    <t>What river flows between Fargo , North Dakota and Moorhead , Minnesota ?</t>
+  </si>
+  <si>
+    <t>What do bats eat ?</t>
+  </si>
+  <si>
+    <t>What state did the Battle of Bighorn take place in ?</t>
+  </si>
+  <si>
+    <t>Who was Abraham Lincoln ?</t>
+  </si>
+  <si>
+    <t>What do you call a newborn kangaroo ?</t>
+  </si>
+  <si>
+    <t>What are spider veins ?</t>
+  </si>
+  <si>
+    <t>What day and month did John Lennon die ?</t>
+  </si>
+  <si>
+    <t>What strait separates North America from Asia ?</t>
+  </si>
+  <si>
+    <t>What is the population of Seattle ?</t>
+  </si>
+  <si>
+    <t>How much was a ticket for the Titanic ?</t>
+  </si>
+  <si>
+    <t>What is the largest city in the world ?</t>
+  </si>
+  <si>
+    <t>What American composer wrote the music for `` West Side Story '' ?</t>
+  </si>
+  <si>
+    <t>Where is the Mall of the America ?</t>
+  </si>
+  <si>
+    <t>What is the pH scale ?</t>
+  </si>
+  <si>
+    <t>What type of currency is used in Australia ?</t>
+  </si>
+  <si>
+    <t>How tall is the Gateway Arch in St. Louis , MO ?</t>
+  </si>
+  <si>
+    <t>How much does the human adult female brain weigh ?</t>
+  </si>
+  <si>
+    <t>Who was the first governor of Alaska ?</t>
+  </si>
+  <si>
+    <t>What is a prism ?</t>
+  </si>
+  <si>
+    <t>When was the first liver transplant ?</t>
+  </si>
+  <si>
+    <t>Who was elected president of South Africa in 1994 ?</t>
+  </si>
+  <si>
+    <t>What is the population of China ?</t>
+  </si>
+  <si>
+    <t>When was Rosa Parks born ?</t>
+  </si>
+  <si>
+    <t>Why is a ladybug helpful ?</t>
+  </si>
+  <si>
+    <t>What is amoxicillin ?</t>
+  </si>
+  <si>
+    <t>Who was the first female United States Representative ?</t>
+  </si>
+  <si>
+    <t>What are xerophytes ?</t>
+  </si>
+  <si>
+    <t>What country did Ponce de Leon come from ?</t>
+  </si>
+  <si>
+    <t>The U.S. Department of Treasury first issued paper currency for the U.S. during which war ?</t>
+  </si>
+  <si>
+    <t>What is desktop publishing ?</t>
+  </si>
+  <si>
+    <t>What is the temperature of the sun 's surface ?</t>
+  </si>
+  <si>
+    <t>What year did Canada join the United Nations ?</t>
+  </si>
+  <si>
+    <t>What is the oldest university in the US ?</t>
+  </si>
+  <si>
+    <t>Where is Prince Edward Island ?</t>
+  </si>
+  <si>
+    <t>Mercury , what year was it discovered ?</t>
+  </si>
+  <si>
+    <t>What is cryogenics ?</t>
+  </si>
+  <si>
+    <t>What are coral reefs ?</t>
+  </si>
+  <si>
+    <t>What is the longest major league baseball-winning streak ?</t>
+  </si>
+  <si>
+    <t>What is neurology ?</t>
+  </si>
+  <si>
+    <t>Who invented the calculator ?</t>
+  </si>
+  <si>
+    <t>How do you measure earthquakes ?</t>
+  </si>
+  <si>
+    <t>Who is Duke Ellington ?</t>
+  </si>
+  <si>
+    <t>What county is Phoenix , AZ in ?</t>
+  </si>
+  <si>
+    <t>What is a micron ?</t>
+  </si>
+  <si>
+    <t>The sun 's core , what is the temperature ?</t>
+  </si>
+  <si>
+    <t>What is the Ohio state bird ?</t>
+  </si>
+  <si>
+    <t>When were William Shakespeare 's twins born ?</t>
+  </si>
+  <si>
+    <t>What is the highest dam in the U.S. ?</t>
+  </si>
+  <si>
+    <t>What color is a poison arrow frog ?</t>
+  </si>
+  <si>
+    <t>What is acupuncture ?</t>
+  </si>
+  <si>
+    <t>What is the length of the coastline of the state of Alaska ?</t>
+  </si>
+  <si>
+    <t>What is the name of Neil Armstrong 's wife ?</t>
+  </si>
+  <si>
+    <t>What is Hawaii 's state flower ?</t>
+  </si>
+  <si>
+    <t>Who won Ms. American in 1989 ?</t>
+  </si>
+  <si>
+    <t>When did the Hindenberg crash ?</t>
+  </si>
+  <si>
+    <t>What mineral helps prevent osteoporosis ?</t>
+  </si>
+  <si>
+    <t>What was the last year that the Chicago Cubs won the World Series ?</t>
+  </si>
+  <si>
+    <t>Where is Perth ?</t>
+  </si>
+  <si>
+    <t>What year did WWII begin ?</t>
+  </si>
+  <si>
+    <t>What is the diameter of a golf ball ?</t>
+  </si>
+  <si>
+    <t>What is an eclipse ?</t>
+  </si>
+  <si>
+    <t>Who discovered America ?</t>
+  </si>
+  <si>
+    <t>What is the earth 's diameter ?</t>
+  </si>
+  <si>
+    <t>Which president was unmarried ?</t>
+  </si>
+  <si>
+    <t>How wide is the Milky Way galaxy ?</t>
+  </si>
+  <si>
+    <t>During which season do most thunderstorms occur ?</t>
+  </si>
+  <si>
+    <t>What is Wimbledon ?</t>
+  </si>
+  <si>
+    <t>What is the gestation period for a cat ?</t>
+  </si>
+  <si>
+    <t>How far is a nautical mile ?</t>
+  </si>
+  <si>
+    <t>Who was the abolitionist who led the raid on Harper 's Ferry in 1859 ?</t>
+  </si>
+  <si>
+    <t>What does target heart rate mean ?</t>
+  </si>
+  <si>
+    <t>What was the first satellite to go into space ?</t>
+  </si>
+  <si>
+    <t>What is foreclosure ?</t>
+  </si>
+  <si>
+    <t>What is the major fault line near Kentucky ?</t>
+  </si>
+  <si>
+    <t>Where is the Holland Tunnel ?</t>
+  </si>
+  <si>
+    <t>Who wrote the hymn `` Amazing Grace '' ?</t>
+  </si>
+  <si>
+    <t>What position did Willie Davis play in baseball ?</t>
+  </si>
+  <si>
+    <t>What are platelets ?</t>
+  </si>
+  <si>
+    <t>What is severance pay ?</t>
+  </si>
+  <si>
+    <t>What is the name of Roy Roger 's dog ?</t>
+  </si>
+  <si>
+    <t>Where are the National Archives ?</t>
+  </si>
+  <si>
+    <t>What is a baby turkey called ?</t>
+  </si>
+  <si>
+    <t>What is poliomyelitis ?</t>
+  </si>
+  <si>
+    <t>What is the longest bone in the human body ?</t>
+  </si>
+  <si>
+    <t>Who is a German philosopher ?</t>
+  </si>
+  <si>
+    <t>What were Christopher Columbus ' three ships ?</t>
+  </si>
+  <si>
+    <t>What does Phi Beta Kappa mean ?</t>
+  </si>
+  <si>
+    <t>What is nicotine ?</t>
+  </si>
+  <si>
+    <t>What is another name for vitamin B1 ?</t>
+  </si>
+  <si>
+    <t>Who discovered radium ?</t>
+  </si>
+  <si>
+    <t>What are sunspots ?</t>
+  </si>
+  <si>
+    <t>When was Algeria colonized ?</t>
+  </si>
+  <si>
+    <t>What baseball team was the first to make numbers part of their uniform ?</t>
+  </si>
+  <si>
+    <t>What continent is Egypt on ?</t>
+  </si>
+  <si>
+    <t>What is the capital of Mongolia ?</t>
+  </si>
+  <si>
+    <t>What is nanotechnology ?</t>
+  </si>
+  <si>
+    <t>In the late 1700 's British convicts were used to populate which colony ?</t>
+  </si>
+  <si>
+    <t>What state is the geographic center of the lower 48 states ?</t>
+  </si>
+  <si>
+    <t>What is an obtuse angle ?</t>
+  </si>
+  <si>
+    <t>What are polymers ?</t>
+  </si>
+  <si>
+    <t>When is hurricane season in the Caribbean ?</t>
+  </si>
+  <si>
+    <t>Where is the volcano Mauna Loa ?</t>
+  </si>
+  <si>
+    <t>What is another astronomic term for the Northern Lights ?</t>
+  </si>
+  <si>
+    <t>What peninsula is Spain part of ?</t>
+  </si>
+  <si>
+    <t>When was Lyndon B. Johnson born ?</t>
+  </si>
+  <si>
+    <t>What is acetaminophen ?</t>
+  </si>
+  <si>
+    <t>What state has the least amount of rain per year ?</t>
+  </si>
+  <si>
+    <t>Who founded American Red Cross ?</t>
+  </si>
+  <si>
+    <t>What year did the Milwaukee Braves become the Atlanta Braves ?</t>
+  </si>
+  <si>
+    <t>How fast is alcohol absorbed ?</t>
+  </si>
+  <si>
+    <t>When is the summer solstice ?</t>
+  </si>
+  <si>
+    <t>What is supernova ?</t>
+  </si>
+  <si>
+    <t>Where is the Shawnee National Forest ?</t>
+  </si>
+  <si>
+    <t>What U.S. state 's motto is `` Live free or Die '' ?</t>
+  </si>
+  <si>
+    <t>Where is the Lourve ?</t>
+  </si>
+  <si>
+    <t>When was the first stamp issued ?</t>
+  </si>
+  <si>
+    <t>What primary colors do you mix to make orange ?</t>
+  </si>
+  <si>
+    <t>How far is Pluto from the sun ?</t>
+  </si>
+  <si>
+    <t>What body of water are the Canary Islands in ?</t>
+  </si>
+  <si>
+    <t>What is neuropathy ?</t>
+  </si>
+  <si>
+    <t>Where is the Euphrates River ?</t>
+  </si>
+  <si>
+    <t>What is cryptography ?</t>
+  </si>
+  <si>
+    <t>What is natural gas composed of ?</t>
+  </si>
+  <si>
+    <t>Who is the Prime Minister of Canada ?</t>
+  </si>
+  <si>
+    <t>What French ruler was defeated at the battle of Waterloo ?</t>
+  </si>
+  <si>
+    <t>What is leukemia ?</t>
+  </si>
+  <si>
+    <t>Where did Howard Hughes die ?</t>
+  </si>
+  <si>
+    <t>What is the birthstone for June ?</t>
+  </si>
+  <si>
+    <t>What is the sales tax in Minnesota ?</t>
+  </si>
+  <si>
+    <t>What is the distance in miles from the earth to the sun ?</t>
+  </si>
+  <si>
+    <t>What is the average life span for a chicken ?</t>
+  </si>
+  <si>
+    <t>When was the first Wal-Mart store opened ?</t>
+  </si>
+  <si>
+    <t>What is relative humidity ?</t>
+  </si>
+  <si>
+    <t>What city has the zip code of 35824 ?</t>
+  </si>
+  <si>
+    <t>What currency is used in Algeria ?</t>
+  </si>
+  <si>
+    <t>Who invented the hula hoop ?</t>
+  </si>
+  <si>
+    <t>What was the most popular toy in 1957 ?</t>
+  </si>
+  <si>
+    <t>What is pastrami made of ?</t>
+  </si>
+  <si>
+    <t>What is the name of the satellite that the Soviet Union sent into space in 1957 ?</t>
+  </si>
+  <si>
+    <t>What city 's newspaper is called `` The Enquirer '' ?</t>
+  </si>
+  <si>
+    <t>Who invented the slinky ?</t>
+  </si>
+  <si>
+    <t>What are the animals that don 't have backbones called ?</t>
+  </si>
+  <si>
+    <t>What is the melting point of copper ?</t>
+  </si>
+  <si>
+    <t>Where is the volcano Olympus Mons located ?</t>
+  </si>
+  <si>
+    <t>Who was the 23rd president of the United States ?</t>
+  </si>
+  <si>
+    <t>What is the average body temperature ?</t>
+  </si>
+  <si>
+    <t>What does a defibrillator do ?</t>
+  </si>
+  <si>
+    <t>What is the effect of acid rain ?</t>
+  </si>
+  <si>
+    <t>What year did the United States abolish the draft ?</t>
+  </si>
+  <si>
+    <t>How fast is the speed of light ?</t>
+  </si>
+  <si>
+    <t>What province is Montreal in ?</t>
+  </si>
+  <si>
+    <t>What New York City structure is also known as the Twin Towers ?</t>
+  </si>
+  <si>
+    <t>What is fungus ?</t>
+  </si>
+  <si>
+    <t>What is the most frequently spoken language in the Netherlands ?</t>
+  </si>
+  <si>
+    <t>What is sodium chloride ?</t>
+  </si>
+  <si>
+    <t>What are the spots on dominoes called ?</t>
+  </si>
+  <si>
+    <t>How many pounds in a ton ?</t>
+  </si>
+  <si>
+    <t>What is influenza ?</t>
+  </si>
+  <si>
+    <t>What is ozone depletion ?</t>
+  </si>
+  <si>
+    <t>What year was the Mona Lisa painted ?</t>
+  </si>
+  <si>
+    <t>What does `` Sitting Shiva '' mean ?</t>
+  </si>
+  <si>
+    <t>What is the electrical output in Madrid , Spain ?</t>
+  </si>
+  <si>
+    <t>Which mountain range in North America stretches from Maine to Georgia ?</t>
+  </si>
+  <si>
+    <t>What is plastic made of ?</t>
+  </si>
+  <si>
+    <t>What is the population of Nigeria ?</t>
+  </si>
+  <si>
+    <t>What does your spleen do ?</t>
+  </si>
+  <si>
+    <t>Where is the Grand Canyon ?</t>
+  </si>
+  <si>
+    <t>Who invented the telephone ?</t>
+  </si>
+  <si>
+    <t>What year did the U.S. buy Alaska ?</t>
+  </si>
+  <si>
+    <t>What is the name of the leader of Ireland ?</t>
+  </si>
+  <si>
+    <t>What is phenylalanine ?</t>
+  </si>
+  <si>
+    <t>How many gallons of water are there in a cubic foot ?</t>
+  </si>
+  <si>
+    <t>What are the two houses of the Legislative branch ?</t>
+  </si>
+  <si>
+    <t>What is sonar ?</t>
+  </si>
+  <si>
+    <t>In Poland , where do most people live ?</t>
+  </si>
+  <si>
+    <t>What is phosphorus ?</t>
+  </si>
+  <si>
+    <t>What is the location of the Sea of Tranquility ?</t>
+  </si>
+  <si>
+    <t>How fast is sound ?</t>
+  </si>
+  <si>
+    <t>What French province is cognac produced in ?</t>
+  </si>
+  <si>
+    <t>What is Valentine 's Day ?</t>
+  </si>
+  <si>
+    <t>What causes gray hair ?</t>
+  </si>
+  <si>
+    <t>What is hypertension ?</t>
+  </si>
+  <si>
+    <t>What is bandwidth ?</t>
+  </si>
+  <si>
+    <t>What is the longest suspension bridge in the U.S. ?</t>
+  </si>
+  <si>
+    <t>What is a parasite ?</t>
+  </si>
+  <si>
+    <t>What is home equity ?</t>
+  </si>
+  <si>
+    <t>What do meteorologists do ?</t>
+  </si>
+  <si>
+    <t>What is the criterion for being legally blind ?</t>
+  </si>
+  <si>
+    <t>Who is the tallest man in the world ?</t>
+  </si>
+  <si>
+    <t>What are the twin cities ?</t>
+  </si>
+  <si>
+    <t>What did Edward Binney and Howard Smith invent in 1903 ?</t>
+  </si>
+  <si>
+    <t>What is the statue of liberty made of ?</t>
+  </si>
+  <si>
+    <t>What is pilates ?</t>
+  </si>
+  <si>
+    <t>What planet is known as the `` red '' planet ?</t>
+  </si>
+  <si>
+    <t>What is the depth of the Nile river ?</t>
+  </si>
+  <si>
+    <t>What is the colorful Korean traditional dress called ?</t>
+  </si>
+  <si>
+    <t>What is Mardi Gras ?</t>
+  </si>
+  <si>
+    <t>Mexican pesos are worth what in U.S. dollars ?</t>
+  </si>
+  <si>
+    <t>Who was the first African American to play for the Brooklyn Dodgers ?</t>
+  </si>
+  <si>
+    <t>Who was the first Prime Minister of Canada ?</t>
+  </si>
+  <si>
+    <t>How many Admirals are there in the U.S. Navy ?</t>
+  </si>
+  <si>
+    <t>What instrument did Glenn Miller play ?</t>
+  </si>
+  <si>
+    <t>How old was Joan of Arc when she died ?</t>
+  </si>
+  <si>
+    <t>What does the word fortnight mean ?</t>
+  </si>
+  <si>
+    <t>What is dianetics ?</t>
+  </si>
+  <si>
+    <t>What is the capital of Ethiopia ?</t>
+  </si>
+  <si>
+    <t>For how long is an elephant pregnant ?</t>
+  </si>
+  <si>
+    <t>How did Janice Joplin die ?</t>
+  </si>
+  <si>
+    <t>What is the primary language in Iceland ?</t>
+  </si>
+  <si>
+    <t>What is the difference between AM radio stations and FM radio stations ?</t>
+  </si>
+  <si>
+    <t>What is osteoporosis ?</t>
+  </si>
+  <si>
+    <t>Who was the first woman governor in the U.S. ?</t>
+  </si>
+  <si>
+    <t>What is peyote ?</t>
+  </si>
+  <si>
+    <t>What is the esophagus used for ?</t>
+  </si>
+  <si>
+    <t>What is viscosity ?</t>
+  </si>
+  <si>
+    <t>What year did Oklahoma become a state ?</t>
+  </si>
+  <si>
+    <t>What is the abbreviation for Texas ?</t>
+  </si>
+  <si>
+    <t>What is a mirror made out of ?</t>
+  </si>
+  <si>
+    <t>Where on the body is a mortarboard worn ?</t>
+  </si>
+  <si>
+    <t>What was J.F.K. 's wife 's name ?</t>
+  </si>
+  <si>
+    <t>What does I.V. stand for ?</t>
+  </si>
+  <si>
+    <t>What is the chunnel ?</t>
+  </si>
+  <si>
+    <t>Where is Hitler buried ?</t>
+  </si>
+  <si>
+    <t>What are antacids ?</t>
+  </si>
+  <si>
+    <t>What is pulmonary fibrosis ?</t>
+  </si>
+  <si>
+    <t>What are Quaaludes ?</t>
+  </si>
+  <si>
+    <t>What is naproxen ?</t>
+  </si>
+  <si>
+    <t>What is strep throat ?</t>
+  </si>
+  <si>
+    <t>What is the largest city in the U.S. ?</t>
+  </si>
+  <si>
+    <t>What is foot and mouth disease ?</t>
+  </si>
+  <si>
+    <t>What is the life expectancy of a dollar bill ?</t>
+  </si>
+  <si>
+    <t>What do you call a professional map drawer ?</t>
+  </si>
+  <si>
+    <t>What are Aborigines ?</t>
+  </si>
+  <si>
+    <t>What is hybridization ?</t>
+  </si>
+  <si>
+    <t>What color is indigo ?</t>
+  </si>
+  <si>
+    <t>How old do you have to be in order to rent a car in Italy ?</t>
+  </si>
+  <si>
+    <t>What does a barometer measure ?</t>
+  </si>
+  <si>
+    <t>What color is a giraffe 's tongue ?</t>
+  </si>
+  <si>
+    <t>What does USPS stand for ?</t>
+  </si>
+  <si>
+    <t>What year did the NFL go on strike ?</t>
+  </si>
+  <si>
+    <t>What is solar wind ?</t>
+  </si>
+  <si>
+    <t>What date did Neil Armstrong land on the moon ?</t>
+  </si>
+  <si>
+    <t>When was Hiroshima bombed ?</t>
+  </si>
+  <si>
+    <t>Where is the Savannah River ?</t>
+  </si>
+  <si>
+    <t>Who was the first woman killed in the Vietnam War ?</t>
+  </si>
+  <si>
+    <t>What planet has the strongest magnetic field of all the planets ?</t>
+  </si>
+  <si>
+    <t>Who is the governor of Alaska ?</t>
+  </si>
+  <si>
+    <t>What year did Mussolini seize power in Italy ?</t>
+  </si>
+  <si>
+    <t>What is the capital of Persia ?</t>
+  </si>
+  <si>
+    <t>Where is the Eiffel Tower ?</t>
+  </si>
+  <si>
+    <t>How many hearts does an octopus have ?</t>
+  </si>
+  <si>
+    <t>What is pneumonia ?</t>
+  </si>
+  <si>
+    <t>What is the deepest lake in the US ?</t>
+  </si>
+  <si>
+    <t>What is a fuel cell ?</t>
+  </si>
+  <si>
+    <t>Who was the first U.S. president to appear on TV ?</t>
+  </si>
+  <si>
+    <t>Where is the Little League Museum ?</t>
+  </si>
+  <si>
+    <t>What are the two types of twins ?</t>
+  </si>
+  <si>
+    <t>What is the brightest star ?</t>
+  </si>
+  <si>
+    <t>What is diabetes ?</t>
+  </si>
+  <si>
+    <t>When was President Kennedy shot ?</t>
+  </si>
+  <si>
+    <t>What is TMJ ?</t>
+  </si>
+  <si>
+    <t>What color is yak milk ?</t>
+  </si>
+  <si>
+    <t>What date was Dwight D. Eisenhower born ?</t>
+  </si>
+  <si>
+    <t>What does the technical term ISDN mean ?</t>
+  </si>
+  <si>
+    <t>Why is the sun yellow ?</t>
+  </si>
+  <si>
+    <t>What is the conversion rate between dollars and pounds ?</t>
+  </si>
+  <si>
+    <t>When was Abraham Lincoln born ?</t>
+  </si>
+  <si>
+    <t>What is the Milky Way ?</t>
+  </si>
+  <si>
+    <t>What is mold ?</t>
+  </si>
+  <si>
+    <t>What year was Mozart born ?</t>
+  </si>
+  <si>
+    <t>What is a group of frogs called ?</t>
+  </si>
+  <si>
+    <t>What is the name of William Penn 's ship ?</t>
+  </si>
+  <si>
+    <t>What is the melting point of gold ?</t>
+  </si>
+  <si>
+    <t>What is the street address of the White House ?</t>
+  </si>
+  <si>
+    <t>What is semolina ?</t>
+  </si>
+  <si>
+    <t>What fruit is Melba sauce made from ?</t>
+  </si>
+  <si>
+    <t>What is Ursa Major ?</t>
+  </si>
+  <si>
+    <t>What is the percentage of water content in the human body ?</t>
+  </si>
+  <si>
+    <t>How much does water weigh ?</t>
+  </si>
+  <si>
+    <t>What was President Lyndon Johnson 's reform program called ?</t>
+  </si>
+  <si>
+    <t>What is the murder rate in Windsor , Ontario ?</t>
+  </si>
+  <si>
+    <t>Who is the only president to serve 2 non-consecutive terms ?</t>
+  </si>
+  <si>
+    <t>What is the population of Australia ?</t>
+  </si>
+  <si>
+    <t>Who painted the ceiling of the Sistine Chapel ?</t>
+  </si>
+  <si>
+    <t>Name a stimulant .</t>
+  </si>
+  <si>
+    <t>What is the effect of volcanoes on the climate ?</t>
+  </si>
+  <si>
+    <t>What year did the Andy Griffith show begin ?</t>
+  </si>
+  <si>
+    <t>What is acid rain ?</t>
+  </si>
+  <si>
+    <t>What is the date of Mexico 's independence ?</t>
+  </si>
+  <si>
+    <t>What is the location of Lake Champlain ?</t>
+  </si>
+  <si>
+    <t>What is the Illinois state flower ?</t>
+  </si>
+  <si>
+    <t>What is Maryland 's state bird ?</t>
+  </si>
+  <si>
+    <t>What is quicksilver ?</t>
+  </si>
+  <si>
+    <t>Who wrote `` The Divine Comedy '' ?</t>
+  </si>
+  <si>
+    <t>What is the speed of light ?</t>
+  </si>
+  <si>
+    <t>What is the width of a football field ?</t>
+  </si>
+  <si>
+    <t>Why in tennis are zero points called love ?</t>
+  </si>
+  <si>
+    <t>What kind of dog was Toto in the Wizard of Oz ?</t>
+  </si>
+  <si>
+    <t>What is a thyroid ?</t>
+  </si>
+  <si>
+    <t>What does ciao mean ?</t>
+  </si>
+  <si>
+    <t>What is the only artery that carries blue blood from the heart to the lungs ?</t>
+  </si>
+  <si>
+    <t>How often does Old Faithful erupt at Yellowstone National Park ?</t>
+  </si>
+  <si>
+    <t>What is acetic acid ?</t>
+  </si>
+  <si>
+    <t>What is the elevation of St. Louis , MO ?</t>
+  </si>
+  <si>
+    <t>What color does litmus paper turn when it comes into contact with a strong acid ?</t>
+  </si>
+  <si>
+    <t>What are the colors of the German flag ?</t>
+  </si>
+  <si>
+    <t>What is the Moulin Rouge ?</t>
+  </si>
+  <si>
+    <t>What soviet seaport is on the Black Sea ?</t>
+  </si>
+  <si>
+    <t>What is the atomic weight of silver ?</t>
+  </si>
+  <si>
+    <t>What currency do they use in Brazil ?</t>
+  </si>
+  <si>
+    <t>What are pathogens ?</t>
+  </si>
+  <si>
+    <t>What is mad cow disease ?</t>
+  </si>
+  <si>
+    <t>Name a food high in zinc .</t>
+  </si>
+  <si>
+    <t>When did North Carolina enter the union ?</t>
+  </si>
+  <si>
+    <t>Where do apple snails live ?</t>
+  </si>
+  <si>
+    <t>What are ethics ?</t>
+  </si>
+  <si>
+    <t>What does CPR stand for ?</t>
+  </si>
+  <si>
+    <t>What is an annuity ?</t>
+  </si>
+  <si>
+    <t>Who killed John F. Kennedy ?</t>
+  </si>
+  <si>
+    <t>Who was the first vice president of the U.S. ?</t>
+  </si>
+  <si>
+    <t>What birthstone is turquoise ?</t>
+  </si>
+  <si>
+    <t>Who was the first US President to ride in an automobile to his inauguration ?</t>
+  </si>
+  <si>
+    <t>How old was the youngest president of the United States ?</t>
+  </si>
+  <si>
+    <t>When was Ulysses S. Grant born ?</t>
+  </si>
+  <si>
+    <t>What is Muscular Dystrophy ?</t>
+  </si>
+  <si>
+    <t>Who lived in the Neuschwanstein castle ?</t>
+  </si>
+  <si>
+    <t>What is propylene glycol ?</t>
+  </si>
+  <si>
+    <t>What is a panic disorder ?</t>
+  </si>
+  <si>
+    <t>Who invented the instant Polaroid camera ?</t>
+  </si>
+  <si>
+    <t>What is a carcinogen ?</t>
+  </si>
+  <si>
+    <t>What is a baby lion called ?</t>
+  </si>
+  <si>
+    <t>What is the world 's population ?</t>
+  </si>
+  <si>
+    <t>What is nepotism ?</t>
+  </si>
+  <si>
+    <t>What is die-casting ?</t>
+  </si>
+  <si>
+    <t>What is myopia ?</t>
+  </si>
+  <si>
+    <t>What is the sales tax rate in New York ?</t>
+  </si>
+  <si>
+    <t>Developing nations comprise what percentage of the world 's population ?</t>
+  </si>
+  <si>
+    <t>What is the fourth highest mountain in the world ?</t>
+  </si>
+  <si>
+    <t>What is Shakespeare 's nickname ?</t>
+  </si>
+  <si>
+    <t>What is the heaviest naturally occurring element ?</t>
+  </si>
+  <si>
+    <t>When is Father 's Day ?</t>
+  </si>
+  <si>
+    <t>What does the acronym NASA stand for ?</t>
+  </si>
+  <si>
+    <t>How long is the Columbia River in miles ?</t>
+  </si>
+  <si>
+    <t>What city 's newspaper is called `` The Star '' ?</t>
+  </si>
+  <si>
+    <t>What is carbon dioxide ?</t>
+  </si>
+  <si>
+    <t>Where is the Mason/Dixon line ?</t>
+  </si>
+  <si>
+    <t>When was the Boston tea party ?</t>
+  </si>
+  <si>
+    <t>What is metabolism ?</t>
+  </si>
+  <si>
+    <t>Which U.S.A. president appeared on `` Laugh-In '' ?</t>
+  </si>
+  <si>
+    <t>What are cigarettes made of ?</t>
+  </si>
+  <si>
+    <t>What is the capital of Zimbabwe ?</t>
+  </si>
+  <si>
+    <t>What does NASA stand for ?</t>
+  </si>
+  <si>
+    <t>What is the state flower of Michigan ?</t>
+  </si>
+  <si>
+    <t>What are semiconductors ?</t>
+  </si>
+  <si>
+    <t>What is nuclear power ?</t>
+  </si>
+  <si>
+    <t>What is a tsunami ?</t>
+  </si>
+  <si>
+    <t>Who is the congressman from state of Texas on the armed forces committee ?</t>
+  </si>
+  <si>
+    <t>Who was president in 1913 ?</t>
+  </si>
+  <si>
+    <t>When was the first kidney transplant ?</t>
+  </si>
+  <si>
+    <t>What are Canada 's two territories ?</t>
+  </si>
+  <si>
+    <t>What was the name of the plane Lindbergh flew solo across the Atlantic ?</t>
+  </si>
+  <si>
+    <t>What is genocide ?</t>
+  </si>
+  <si>
+    <t>What continent is Argentina on ?</t>
+  </si>
+  <si>
+    <t>What monastery was raided by Vikings in the late eighth century ?</t>
+  </si>
+  <si>
+    <t>What is an earthquake ?</t>
+  </si>
+  <si>
+    <t>Where is the tallest roller coaster located ?</t>
+  </si>
+  <si>
+    <t>What are enzymes ?</t>
+  </si>
+  <si>
+    <t>Who discovered oxygen ?</t>
+  </si>
+  <si>
+    <t>What is bangers and mash ?</t>
+  </si>
+  <si>
+    <t>What is the name given to the Tiger at Louisiana State University ?</t>
+  </si>
+  <si>
+    <t>Where are the British crown jewels kept ?</t>
+  </si>
+  <si>
+    <t>Who was the first person to reach the North Pole ?</t>
+  </si>
+  <si>
+    <t>What is an ulcer ?</t>
+  </si>
+  <si>
+    <t>What is vertigo ?</t>
+  </si>
+  <si>
+    <t>What is the spirometer test ?</t>
+  </si>
+  <si>
+    <t>When is the official first day of summer ?</t>
+  </si>
+  <si>
+    <t>What does the abbreviation SOS mean ?</t>
+  </si>
+  <si>
+    <t>What is the smallest bird in Britain ?</t>
+  </si>
+  <si>
+    <t>Who invented Trivial Pursuit ?</t>
+  </si>
+  <si>
+    <t>What gasses are in the troposphere ?</t>
+  </si>
+  <si>
+    <t>Which country has the most water pollution ?</t>
+  </si>
+  <si>
+    <t>What is the scientific name for elephant ?</t>
+  </si>
+  <si>
+    <t>Who is the actress known for her role in the movie `` Gypsy '' ?</t>
+  </si>
+  <si>
+    <t>What breed of hunting dog did the Beverly Hillbillies own ?</t>
+  </si>
+  <si>
+    <t>What is the rainiest place on Earth ?</t>
+  </si>
+  <si>
+    <t>Who was the first African American to win the Nobel Prize in literature ?</t>
+  </si>
+  <si>
+    <t>When is St. Patrick 's Day ?</t>
+  </si>
+  <si>
+    <t>What was FDR 's dog 's name ?</t>
+  </si>
+  <si>
+    <t>What colors need to be mixed to get the color pink ?</t>
+  </si>
+  <si>
+    <t>What is the most popular sport in Japan ?</t>
+  </si>
+  <si>
+    <t>What is the active ingredient in baking soda ?</t>
+  </si>
+  <si>
+    <t>When was Thomas Jefferson born ?</t>
+  </si>
+  <si>
+    <t>How cold should a refrigerator be ?</t>
+  </si>
+  <si>
+    <t>When was the telephone invented ?</t>
+  </si>
+  <si>
+    <t>What is the most common eye color ?</t>
+  </si>
+  <si>
+    <t>Where was the first golf course in the United States ?</t>
+  </si>
+  <si>
+    <t>What is schizophrenia ?</t>
+  </si>
+  <si>
+    <t>What is angiotensin ?</t>
+  </si>
+  <si>
+    <t>What did Jesse Jackson organize ?</t>
+  </si>
+  <si>
+    <t>What is New York 's state bird ?</t>
+  </si>
+  <si>
+    <t>What is the National Park in Utah ?</t>
+  </si>
+  <si>
+    <t>What is Susan B. Anthony 's birthday ?</t>
+  </si>
+  <si>
+    <t>In which state would you find the Catskill Mountains ?</t>
+  </si>
+  <si>
+    <t>What do you call a word that is spelled the same backwards and forwards ?</t>
+  </si>
+  <si>
+    <t>What are pediatricians ?</t>
+  </si>
+  <si>
+    <t>What chain store is headquartered in Bentonville , Arkansas ?</t>
+  </si>
+  <si>
+    <t>What are solar cells ?</t>
+  </si>
+  <si>
+    <t>What is compounded interest ?</t>
+  </si>
+  <si>
+    <t>What are capers ?</t>
+  </si>
+  <si>
+    <t>What is an antigen ?</t>
+  </si>
+  <si>
+    <t>What currency does Luxembourg use ?</t>
+  </si>
+  <si>
+    <t>What is the population of Venezuela ?</t>
+  </si>
+  <si>
+    <t>What type of polymer is used for bulletproof vests ?</t>
+  </si>
+  <si>
+    <t>What currency does Argentina use ?</t>
+  </si>
+  <si>
+    <t>What is a thermometer ?</t>
+  </si>
+  <si>
+    <t>What Canadian city has the largest population ?</t>
+  </si>
+  <si>
+    <t>What color are crickets ?</t>
+  </si>
+  <si>
+    <t>Which country gave New York the Statue of Liberty ?</t>
+  </si>
+  <si>
+    <t>What was the name of the first U.S. satellite sent into space ?</t>
+  </si>
+  <si>
+    <t>What precious stone is a form of pure carbon ?</t>
+  </si>
+  <si>
+    <t>What kind of gas is in a fluorescent bulb ?</t>
+  </si>
+  <si>
+    <t>What is rheumatoid arthritis ?</t>
+  </si>
+  <si>
+    <t>What river runs through Rowe , Italy ?</t>
+  </si>
+  <si>
+    <t>What is cerebral palsy ?</t>
+  </si>
+  <si>
+    <t>What city is also known as `` The Gateway to the West '' ?</t>
+  </si>
+  <si>
+    <t>How far away is the moon ?</t>
+  </si>
+  <si>
+    <t>What is the source of natural gas ?</t>
+  </si>
+  <si>
+    <t>In what spacecraft did U.S. astronaut Alan Shepard make his historic 1961 flight ?</t>
+  </si>
+  <si>
+    <t>What is pectin ?</t>
+  </si>
+  <si>
+    <t>What is bio-diversity ?</t>
+  </si>
+  <si>
+    <t>What 's the easiest way to remove wallpaper ?</t>
+  </si>
+  <si>
+    <t>What year did the Titanic start on its journey ?</t>
+  </si>
+  <si>
+    <t>How much of an apple is water ?</t>
+  </si>
+  <si>
+    <t>Who was the 22nd President of the US ?</t>
+  </si>
+  <si>
+    <t>What is the money they use in Zambia ?</t>
+  </si>
+  <si>
+    <t>How many feet in a mile ?</t>
+  </si>
+  <si>
+    <t>What is the birthstone of October ?</t>
+  </si>
+  <si>
+    <t>What is e-coli ?</t>
   </si>
 </sst>
 </file>
@@ -1911,22 +1914,25 @@
   <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>507</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1934,31 +1940,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1966,7 +1972,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1974,55 +1980,55 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -2030,15 +2036,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -2046,7 +2052,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -2054,31 +2060,31 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -2086,87 +2092,87 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -2174,23 +2180,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -2198,7 +2204,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -2214,15 +2220,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -2230,7 +2236,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -2238,7 +2244,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -2246,55 +2252,55 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -2302,15 +2308,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -2318,63 +2324,63 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -2382,23 +2388,23 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -2406,71 +2412,71 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -2478,15 +2484,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -2494,7 +2500,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
@@ -2502,47 +2508,47 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -2550,7 +2556,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -2558,23 +2564,23 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
@@ -2582,15 +2588,15 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
@@ -2598,7 +2604,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
@@ -2606,63 +2612,63 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
         <v>0</v>
@@ -2670,7 +2676,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
@@ -2678,23 +2684,23 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
         <v>0</v>
@@ -2702,79 +2708,79 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
         <v>0</v>
@@ -2782,15 +2788,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
@@ -2798,31 +2804,31 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
         <v>0</v>
@@ -2830,31 +2836,31 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
         <v>0</v>
@@ -2862,15 +2868,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
         <v>0</v>
@@ -2878,15 +2884,15 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
         <v>0</v>
@@ -2894,7 +2900,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
         <v>0</v>
@@ -2902,23 +2908,23 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
         <v>0</v>
@@ -2926,15 +2932,15 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
         <v>0</v>
@@ -2942,7 +2948,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
@@ -2950,15 +2956,15 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
         <v>0</v>
@@ -2966,7 +2972,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
         <v>0</v>
@@ -2974,183 +2980,183 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B155" t="s">
         <v>0</v>
@@ -3158,71 +3164,71 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
         <v>0</v>
@@ -3230,31 +3236,31 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
         <v>0</v>
@@ -3262,31 +3268,31 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B172" t="s">
         <v>0</v>
@@ -3294,7 +3300,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B173" t="s">
         <v>0</v>
@@ -3302,7 +3308,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B174" t="s">
         <v>0</v>
@@ -3310,39 +3316,39 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B179" t="s">
         <v>0</v>
@@ -3350,15 +3356,15 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B181" t="s">
         <v>0</v>
@@ -3366,95 +3372,95 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B193" t="s">
         <v>0</v>
@@ -3462,7 +3468,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B194" t="s">
         <v>0</v>
@@ -3470,7 +3476,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B195" t="s">
         <v>0</v>
@@ -3478,87 +3484,87 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B206" t="s">
         <v>0</v>
@@ -3566,23 +3572,23 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B209" t="s">
         <v>0</v>
@@ -3590,23 +3596,23 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B212" t="s">
         <v>0</v>
@@ -3614,7 +3620,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B213" t="s">
         <v>0</v>
@@ -3622,55 +3628,55 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B220" t="s">
         <v>0</v>
@@ -3678,23 +3684,23 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B223" t="s">
         <v>0</v>
@@ -3702,39 +3708,39 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B226" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B228" t="s">
         <v>0</v>
@@ -3742,31 +3748,31 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B230" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B231" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B232" t="s">
         <v>0</v>
@@ -3774,23 +3780,23 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B235" t="s">
         <v>0</v>
@@ -3798,47 +3804,47 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B236" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B240" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B241" t="s">
         <v>0</v>
@@ -3846,135 +3852,135 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B242" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B247" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B252" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B253" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B254" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B257" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B258" t="s">
         <v>0</v>
@@ -3982,23 +3988,23 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B261" t="s">
         <v>0</v>
@@ -4006,23 +4012,23 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B262" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B263" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B264" t="s">
         <v>0</v>
@@ -4030,15 +4036,15 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B266" t="s">
         <v>0</v>
@@ -4046,31 +4052,31 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B269" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B270" t="s">
         <v>0</v>
@@ -4078,71 +4084,71 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B272" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B275" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B277" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B279" t="s">
         <v>0</v>
@@ -4150,119 +4156,119 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B281" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B282" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B283" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B286" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B291" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B292" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B294" t="s">
         <v>0</v>
@@ -4270,39 +4276,39 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B295" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B296" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B297" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B298" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B299" t="s">
         <v>0</v>
@@ -4310,31 +4316,31 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B301" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B302" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B303" t="s">
         <v>0</v>
@@ -4342,15 +4348,15 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B304" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B305" t="s">
         <v>0</v>
@@ -4358,7 +4364,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B306" t="s">
         <v>0</v>
@@ -4366,39 +4372,39 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B307" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B310" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B311" t="s">
         <v>0</v>
@@ -4406,23 +4412,23 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B312" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B313" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B314" t="s">
         <v>0</v>
@@ -4430,71 +4436,71 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B315" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B316" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B317" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B318" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B320" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B321" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B322" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B323" t="s">
         <v>0</v>
@@ -4502,23 +4508,23 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B324" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B325" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B326" t="s">
         <v>0</v>
@@ -4526,23 +4532,23 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B327" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B328" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B329" t="s">
         <v>0</v>
@@ -4550,7 +4556,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B330" t="s">
         <v>0</v>
@@ -4558,23 +4564,23 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B331" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B333" t="s">
         <v>0</v>
@@ -4582,23 +4588,23 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B334" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B335" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B336" t="s">
         <v>0</v>
@@ -4606,39 +4612,39 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B337" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B338" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B339" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B341" t="s">
         <v>0</v>
@@ -4646,7 +4652,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B342" t="s">
         <v>0</v>
@@ -4654,15 +4660,15 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B343" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B344" t="s">
         <v>0</v>
@@ -4670,15 +4676,15 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B345" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B346" t="s">
         <v>0</v>
@@ -4686,31 +4692,31 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B347" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B348" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B349" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B350" t="s">
         <v>0</v>
@@ -4718,15 +4724,15 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B352" t="s">
         <v>0</v>
@@ -4734,47 +4740,47 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B353" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B354" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B355" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B356" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B357" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B358" t="s">
         <v>0</v>
@@ -4782,7 +4788,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B359" t="s">
         <v>0</v>
@@ -4790,47 +4796,47 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B360" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B361" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B362" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B363" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B364" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B365" t="s">
         <v>0</v>
@@ -4838,15 +4844,15 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B366" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B367" t="s">
         <v>0</v>
@@ -4854,39 +4860,39 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B369" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B370" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B371" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B372" t="s">
         <v>0</v>
@@ -4894,39 +4900,39 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B373" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B374" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B376" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B377" t="s">
         <v>0</v>
@@ -4934,71 +4940,71 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B378" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B379" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B380" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B381" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B382" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B383" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B385" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B386" t="s">
         <v>0</v>
@@ -5006,7 +5012,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B387" t="s">
         <v>0</v>
@@ -5014,63 +5020,63 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B388" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B389" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B390" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B391" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B392" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B393" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B394" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B395" t="s">
         <v>0</v>
@@ -5078,31 +5084,31 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B396" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B397" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B398" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B399" t="s">
         <v>0</v>
@@ -5110,7 +5116,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B400" t="s">
         <v>0</v>
@@ -5118,31 +5124,31 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B401" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B402" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B403" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B404" t="s">
         <v>0</v>
@@ -5150,15 +5156,15 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B405" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B406" t="s">
         <v>0</v>
@@ -5166,31 +5172,31 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B407" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B408" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B409" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B410" t="s">
         <v>0</v>
@@ -5198,95 +5204,95 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B411" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B412" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B413" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B414" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B415" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B417" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B418" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B419" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B420" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B421" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B422" t="s">
         <v>0</v>
@@ -5294,135 +5300,135 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B423" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B424" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B425" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B426" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B427" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B428" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B429" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B430" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B431" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B432" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B433" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B434" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B435" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B436" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B437" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B438" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B439" t="s">
         <v>0</v>
@@ -5430,87 +5436,87 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B440" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B441" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B442" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B443" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B444" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B445" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B446" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B447" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B448" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B449" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B450" t="s">
         <v>0</v>
@@ -5518,39 +5524,39 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B451" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B452" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B453" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B454" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B455" t="s">
         <v>0</v>
@@ -5558,7 +5564,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B456" t="s">
         <v>0</v>
@@ -5566,7 +5572,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B457" t="s">
         <v>0</v>
@@ -5574,63 +5580,63 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B458" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B459" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B460" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B461" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B462" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B463" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B464" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B465" t="s">
         <v>0</v>
@@ -5638,79 +5644,79 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B466" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B467" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B468" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B469" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B470" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B471" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B472" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B473" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B474" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B475" t="s">
         <v>0</v>
@@ -5718,111 +5724,111 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B476" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B477" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B478" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B479" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B480" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B481" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B482" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B483" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B484" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B485" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B486" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B487" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B488" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B489" t="s">
         <v>0</v>
@@ -5830,47 +5836,47 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B490" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B491" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B492" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B493" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B494" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B495" t="s">
         <v>0</v>
@@ -5878,7 +5884,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B496" t="s">
         <v>0</v>
@@ -5886,23 +5892,23 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B497" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B498" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B499" t="s">
         <v>0</v>
@@ -5910,18 +5916,18 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B500" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B501" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
